--- a/LoL_Event_Cycle_2010.xlsx
+++ b/LoL_Event_Cycle_2010.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B7710-0B9F-4BE6-BF23-FC7A9D9170CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E21A1-1C6B-4DD3-B375-1844F12EDBCC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World Cyber Games 2010" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +146,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -480,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -494,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -508,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -522,21 +525,21 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -550,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -564,7 +567,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -578,7 +581,7 @@
         <v>211</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -592,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DF8C65-E8CA-4B56-AF61-5C92198F4D16}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
